--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H2">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I2">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J2">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.1978855058</v>
+        <v>0.08393033333333333</v>
       </c>
       <c r="N2">
-        <v>7.1978855058</v>
+        <v>0.251791</v>
       </c>
       <c r="O2">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="P2">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="Q2">
-        <v>42.29768642223857</v>
+        <v>0.5016885876335555</v>
       </c>
       <c r="R2">
-        <v>42.29768642223857</v>
+        <v>4.515197288702</v>
       </c>
       <c r="S2">
-        <v>0.0858419036302988</v>
+        <v>0.0009083795541646132</v>
       </c>
       <c r="T2">
-        <v>0.0858419036302988</v>
+        <v>0.0009083795541646132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H3">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I3">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J3">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.18663196251273</v>
+        <v>7.810562000000001</v>
       </c>
       <c r="N3">
-        <v>6.18663196251273</v>
+        <v>23.431686</v>
       </c>
       <c r="O3">
-        <v>0.4622230108152435</v>
+        <v>0.5340894109383487</v>
       </c>
       <c r="P3">
-        <v>0.4622230108152435</v>
+        <v>0.5340894109383488</v>
       </c>
       <c r="Q3">
-        <v>36.35515159963325</v>
+        <v>46.68717092832134</v>
       </c>
       <c r="R3">
-        <v>36.35515159963325</v>
+        <v>420.184538354892</v>
       </c>
       <c r="S3">
-        <v>0.07378170495963157</v>
+        <v>0.08453385737379497</v>
       </c>
       <c r="T3">
-        <v>0.07378170495963157</v>
+        <v>0.08453385737379498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.8021709580976</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H4">
-        <v>4.8021709580976</v>
+        <v>17.932322</v>
       </c>
       <c r="I4">
-        <v>0.1304436860706679</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J4">
-        <v>0.1304436860706679</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.1978855058</v>
+        <v>6.223790999999999</v>
       </c>
       <c r="N4">
-        <v>7.1978855058</v>
+        <v>18.671373</v>
       </c>
       <c r="O4">
-        <v>0.5377769891847566</v>
+        <v>0.4255853636388004</v>
       </c>
       <c r="P4">
-        <v>0.5377769891847566</v>
+        <v>0.4255853636388005</v>
       </c>
       <c r="Q4">
-        <v>34.56547673566441</v>
+        <v>37.20234142423399</v>
       </c>
       <c r="R4">
-        <v>34.56547673566441</v>
+        <v>334.821072818106</v>
       </c>
       <c r="S4">
-        <v>0.07014961275324537</v>
+        <v>0.06736020541393932</v>
       </c>
       <c r="T4">
-        <v>0.07014961275324537</v>
+        <v>0.06736020541393933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.8021709580976</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H5">
-        <v>4.8021709580976</v>
+        <v>17.932322</v>
       </c>
       <c r="I5">
-        <v>0.1304436860706679</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J5">
-        <v>0.1304436860706679</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.18663196251273</v>
+        <v>0.5057886666666667</v>
       </c>
       <c r="N5">
-        <v>6.18663196251273</v>
+        <v>1.517366</v>
       </c>
       <c r="O5">
-        <v>0.4622230108152435</v>
+        <v>0.03458603504322644</v>
       </c>
       <c r="P5">
-        <v>0.4622230108152435</v>
+        <v>0.03458603504322644</v>
       </c>
       <c r="Q5">
-        <v>29.70926433881699</v>
+        <v>3.023321744872444</v>
       </c>
       <c r="R5">
-        <v>29.70926433881699</v>
+        <v>27.209895703852</v>
       </c>
       <c r="S5">
-        <v>0.06029407331742256</v>
+        <v>0.005474160119243907</v>
       </c>
       <c r="T5">
-        <v>0.06029407331742256</v>
+        <v>0.005474160119243907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2374429402082</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H6">
-        <v>17.2374429402082</v>
+        <v>14.438005</v>
       </c>
       <c r="I6">
-        <v>0.4682289770967105</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J6">
-        <v>0.4682289770967105</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.1978855058</v>
+        <v>0.08393033333333333</v>
       </c>
       <c r="N6">
-        <v>7.1978855058</v>
+        <v>0.251791</v>
       </c>
       <c r="O6">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="P6">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="Q6">
-        <v>124.0731406963792</v>
+        <v>0.4039288574394445</v>
       </c>
       <c r="R6">
-        <v>124.0731406963792</v>
+        <v>3.635359716955</v>
       </c>
       <c r="S6">
-        <v>0.2518027695521273</v>
+        <v>0.0007313714612600899</v>
       </c>
       <c r="T6">
-        <v>0.2518027695521273</v>
+        <v>0.0007313714612600899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2374429402082</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H7">
-        <v>17.2374429402082</v>
+        <v>14.438005</v>
       </c>
       <c r="I7">
-        <v>0.4682289770967105</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J7">
-        <v>0.4682289770967105</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.18663196251273</v>
+        <v>7.810562000000001</v>
       </c>
       <c r="N7">
-        <v>6.18663196251273</v>
+        <v>23.431686</v>
       </c>
       <c r="O7">
-        <v>0.4622230108152435</v>
+        <v>0.5340894109383487</v>
       </c>
       <c r="P7">
-        <v>0.4622230108152435</v>
+        <v>0.5340894109383488</v>
       </c>
       <c r="Q7">
-        <v>106.6417154458815</v>
+        <v>37.58964440293668</v>
       </c>
       <c r="R7">
-        <v>106.6417154458815</v>
+        <v>338.3067996264301</v>
       </c>
       <c r="S7">
-        <v>0.2164262075445832</v>
+        <v>0.06806147332354053</v>
       </c>
       <c r="T7">
-        <v>0.2164262075445832</v>
+        <v>0.06806147332354054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.96593279916225</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H8">
-        <v>7.96593279916225</v>
+        <v>14.438005</v>
       </c>
       <c r="I8">
-        <v>0.2163824750057635</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J8">
-        <v>0.2163824750057635</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.1978855058</v>
+        <v>6.223790999999999</v>
       </c>
       <c r="N8">
-        <v>7.1978855058</v>
+        <v>18.671373</v>
       </c>
       <c r="O8">
-        <v>0.5377769891847566</v>
+        <v>0.4255853636388004</v>
       </c>
       <c r="P8">
-        <v>0.5377769891847566</v>
+        <v>0.4255853636388005</v>
       </c>
       <c r="Q8">
-        <v>57.33787223526679</v>
+        <v>29.953041858985</v>
       </c>
       <c r="R8">
-        <v>57.33787223526679</v>
+        <v>269.577376730865</v>
       </c>
       <c r="S8">
-        <v>0.1163655159209454</v>
+        <v>0.05423430287318525</v>
       </c>
       <c r="T8">
-        <v>0.1163655159209454</v>
+        <v>0.05423430287318526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.96593279916225</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H9">
-        <v>7.96593279916225</v>
+        <v>14.438005</v>
       </c>
       <c r="I9">
-        <v>0.2163824750057635</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J9">
-        <v>0.2163824750057635</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>6.18663196251273</v>
+        <v>0.5057886666666667</v>
       </c>
       <c r="N9">
-        <v>6.18663196251273</v>
+        <v>1.517366</v>
       </c>
       <c r="O9">
-        <v>0.4622230108152435</v>
+        <v>0.03458603504322644</v>
       </c>
       <c r="P9">
-        <v>0.4622230108152435</v>
+        <v>0.03458603504322644</v>
       </c>
       <c r="Q9">
-        <v>49.28229446652568</v>
+        <v>2.434193099425556</v>
       </c>
       <c r="R9">
-        <v>49.28229446652568</v>
+        <v>21.90773789483</v>
       </c>
       <c r="S9">
-        <v>0.1000169590848182</v>
+        <v>0.004407457727585091</v>
       </c>
       <c r="T9">
-        <v>0.1000169590848182</v>
+        <v>0.004407457727585091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.932179935877717</v>
+        <v>17.30737</v>
       </c>
       <c r="H10">
-        <v>0.932179935877717</v>
+        <v>51.92211</v>
       </c>
       <c r="I10">
-        <v>0.02532125323692754</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J10">
-        <v>0.02532125323692754</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>7.1978855058</v>
+        <v>0.08393033333333333</v>
       </c>
       <c r="N10">
-        <v>7.1978855058</v>
+        <v>0.251791</v>
       </c>
       <c r="O10">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="P10">
-        <v>0.5377769891847566</v>
+        <v>0.005739190379624315</v>
       </c>
       <c r="Q10">
-        <v>6.709724449251793</v>
+        <v>1.452613333223333</v>
       </c>
       <c r="R10">
-        <v>6.709724449251793</v>
+        <v>13.07351999901</v>
       </c>
       <c r="S10">
-        <v>0.01361718732813966</v>
+        <v>0.002630165972543099</v>
       </c>
       <c r="T10">
-        <v>0.01361718732813966</v>
+        <v>0.002630165972543098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.30737</v>
+      </c>
+      <c r="H11">
+        <v>51.92211</v>
+      </c>
+      <c r="I11">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="J11">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.810562000000001</v>
+      </c>
+      <c r="N11">
+        <v>23.431686</v>
+      </c>
+      <c r="O11">
+        <v>0.5340894109383487</v>
+      </c>
+      <c r="P11">
+        <v>0.5340894109383488</v>
+      </c>
+      <c r="Q11">
+        <v>135.18028644194</v>
+      </c>
+      <c r="R11">
+        <v>1216.62257797746</v>
+      </c>
+      <c r="S11">
+        <v>0.2447634077330584</v>
+      </c>
+      <c r="T11">
+        <v>0.2447634077330584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.30737</v>
+      </c>
+      <c r="H12">
+        <v>51.92211</v>
+      </c>
+      <c r="I12">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="J12">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.223790999999999</v>
+      </c>
+      <c r="N12">
+        <v>18.671373</v>
+      </c>
+      <c r="O12">
+        <v>0.4255853636388004</v>
+      </c>
+      <c r="P12">
+        <v>0.4255853636388005</v>
+      </c>
+      <c r="Q12">
+        <v>107.71745363967</v>
+      </c>
+      <c r="R12">
+        <v>969.4570827570299</v>
+      </c>
+      <c r="S12">
+        <v>0.1950379875581731</v>
+      </c>
+      <c r="T12">
+        <v>0.1950379875581731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.30737</v>
+      </c>
+      <c r="H13">
+        <v>51.92211</v>
+      </c>
+      <c r="I13">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="J13">
+        <v>0.4582817084933969</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.5057886666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.517366</v>
+      </c>
+      <c r="O13">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="P13">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="Q13">
+        <v>8.753871595806666</v>
+      </c>
+      <c r="R13">
+        <v>78.78484436225999</v>
+      </c>
+      <c r="S13">
+        <v>0.01585014722962231</v>
+      </c>
+      <c r="T13">
+        <v>0.01585014722962231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.932179935877717</v>
-      </c>
-      <c r="H11">
-        <v>0.932179935877717</v>
-      </c>
-      <c r="I11">
-        <v>0.02532125323692754</v>
-      </c>
-      <c r="J11">
-        <v>0.02532125323692754</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.18663196251273</v>
-      </c>
-      <c r="N11">
-        <v>6.18663196251273</v>
-      </c>
-      <c r="O11">
-        <v>0.4622230108152435</v>
-      </c>
-      <c r="P11">
-        <v>0.4622230108152435</v>
-      </c>
-      <c r="Q11">
-        <v>5.767054186114152</v>
-      </c>
-      <c r="R11">
-        <v>5.767054186114152</v>
-      </c>
-      <c r="S11">
-        <v>0.01170406590878787</v>
-      </c>
-      <c r="T11">
-        <v>0.01170406590878787</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.725819333333334</v>
+      </c>
+      <c r="H14">
+        <v>26.177458</v>
+      </c>
+      <c r="I14">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="J14">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.08393033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.251791</v>
+      </c>
+      <c r="O14">
+        <v>0.005739190379624315</v>
+      </c>
+      <c r="P14">
+        <v>0.005739190379624315</v>
+      </c>
+      <c r="Q14">
+        <v>0.7323609252531111</v>
+      </c>
+      <c r="R14">
+        <v>6.591248327278</v>
+      </c>
+      <c r="S14">
+        <v>0.00132604509484064</v>
+      </c>
+      <c r="T14">
+        <v>0.00132604509484064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.725819333333334</v>
+      </c>
+      <c r="H15">
+        <v>26.177458</v>
+      </c>
+      <c r="I15">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="J15">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.810562000000001</v>
+      </c>
+      <c r="N15">
+        <v>23.431686</v>
+      </c>
+      <c r="O15">
+        <v>0.5340894109383487</v>
+      </c>
+      <c r="P15">
+        <v>0.5340894109383488</v>
+      </c>
+      <c r="Q15">
+        <v>68.15355290379868</v>
+      </c>
+      <c r="R15">
+        <v>613.3819761341881</v>
+      </c>
+      <c r="S15">
+        <v>0.1234018383665266</v>
+      </c>
+      <c r="T15">
+        <v>0.1234018383665266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.725819333333334</v>
+      </c>
+      <c r="H16">
+        <v>26.177458</v>
+      </c>
+      <c r="I16">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="J16">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.223790999999999</v>
+      </c>
+      <c r="N16">
+        <v>18.671373</v>
+      </c>
+      <c r="O16">
+        <v>0.4255853636388004</v>
+      </c>
+      <c r="P16">
+        <v>0.4255853636388005</v>
+      </c>
+      <c r="Q16">
+        <v>54.307675834426</v>
+      </c>
+      <c r="R16">
+        <v>488.769082509834</v>
+      </c>
+      <c r="S16">
+        <v>0.09833188072881859</v>
+      </c>
+      <c r="T16">
+        <v>0.09833188072881859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.725819333333334</v>
+      </c>
+      <c r="H17">
+        <v>26.177458</v>
+      </c>
+      <c r="I17">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="J17">
+        <v>0.2310508986682965</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5057886666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.517366</v>
+      </c>
+      <c r="O17">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="P17">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="Q17">
+        <v>4.413420526180889</v>
+      </c>
+      <c r="R17">
+        <v>39.720784735628</v>
+      </c>
+      <c r="S17">
+        <v>0.007991134478110664</v>
+      </c>
+      <c r="T17">
+        <v>0.007991134478110663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9424899999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.82747</v>
+      </c>
+      <c r="I18">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="J18">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.08393033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.251791</v>
+      </c>
+      <c r="O18">
+        <v>0.005739190379624315</v>
+      </c>
+      <c r="P18">
+        <v>0.005739190379624315</v>
+      </c>
+      <c r="Q18">
+        <v>0.07910349986333333</v>
+      </c>
+      <c r="R18">
+        <v>0.7119314987699999</v>
+      </c>
+      <c r="S18">
+        <v>0.0001432282968158735</v>
+      </c>
+      <c r="T18">
+        <v>0.0001432282968158735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9424899999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.82747</v>
+      </c>
+      <c r="I19">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="J19">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.810562000000001</v>
+      </c>
+      <c r="N19">
+        <v>23.431686</v>
+      </c>
+      <c r="O19">
+        <v>0.5340894109383487</v>
+      </c>
+      <c r="P19">
+        <v>0.5340894109383488</v>
+      </c>
+      <c r="Q19">
+        <v>7.361376579380001</v>
+      </c>
+      <c r="R19">
+        <v>66.25238921442001</v>
+      </c>
+      <c r="S19">
+        <v>0.0133288341414282</v>
+      </c>
+      <c r="T19">
+        <v>0.01332883414142821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9424899999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.82747</v>
+      </c>
+      <c r="I20">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="J20">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.223790999999999</v>
+      </c>
+      <c r="N20">
+        <v>18.671373</v>
+      </c>
+      <c r="O20">
+        <v>0.4255853636388004</v>
+      </c>
+      <c r="P20">
+        <v>0.4255853636388005</v>
+      </c>
+      <c r="Q20">
+        <v>5.865860779589999</v>
+      </c>
+      <c r="R20">
+        <v>52.79274701631</v>
+      </c>
+      <c r="S20">
+        <v>0.01062098706468415</v>
+      </c>
+      <c r="T20">
+        <v>0.01062098706468415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9424899999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.82747</v>
+      </c>
+      <c r="I21">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="J21">
+        <v>0.0249561849915927</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.5057886666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.517366</v>
+      </c>
+      <c r="O21">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="P21">
+        <v>0.03458603504322644</v>
+      </c>
+      <c r="Q21">
+        <v>0.4767007604466666</v>
+      </c>
+      <c r="R21">
+        <v>4.29030684402</v>
+      </c>
+      <c r="S21">
+        <v>0.000863135488664467</v>
+      </c>
+      <c r="T21">
+        <v>0.0008631354886644669</v>
       </c>
     </row>
   </sheetData>
